--- a/biology/Zoologie/Amazone_de_Sainte-Lucie/Amazone_de_Sainte-Lucie.xlsx
+++ b/biology/Zoologie/Amazone_de_Sainte-Lucie/Amazone_de_Sainte-Lucie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amazona versicolor
-L'Amazone de Sainte-Lucie (Amazona versicolor) est une espèce d'oiseaux néotropicaux de la famille des Psittacidae (la famille des perroquets). C'est une espèce endémique de l'île de Sainte-Lucie (dont il porte le nom), qui en a fait son oiseau national[1].
+L'Amazone de Sainte-Lucie (Amazona versicolor) est une espèce d'oiseaux néotropicaux de la famille des Psittacidae (la famille des perroquets). C'est une espèce endémique de l'île de Sainte-Lucie (dont il porte le nom), qui en a fait son oiseau national.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Biologie et état de l'espèce</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son habitat naturel est la forêt humide de montagne, entre 500 et 900 m principalement, où il niche dans les trous des troncs d'arbre[2].
-Du fait de la destruction de son habitat, de la chasse et du commerce, le nombre d'individus était tombé à 150[3] au milieu des années 1970. Des mesures de conservation ont été prises à partir de 1978 qui ont permis une remontée de la population à environ 500 individus en 1996 et 800 en 2000[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat naturel est la forêt humide de montagne, entre 500 et 900 m principalement, où il niche dans les trous des troncs d'arbre.
+Du fait de la destruction de son habitat, de la chasse et du commerce, le nombre d'individus était tombé à 150 au milieu des années 1970. Des mesures de conservation ont été prises à partir de 1978 qui ont permis une remontée de la population à environ 500 individus en 1996 et 800 en 2000
 </t>
         </is>
       </c>
